--- a/IT工作任务列表.xlsx
+++ b/IT工作任务列表.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Documents\进度报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F7FF62FF-96DF-4DEA-8D76-97EB85798521}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B48A40DA-0942-46BA-97BE-EA1EA9A82C3B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26895" windowHeight="13530" xr2:uid="{D75F36DC-06FE-4804-BC47-7E589333D518}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26895" windowHeight="13530" activeTab="1" xr2:uid="{D75F36DC-06FE-4804-BC47-7E589333D518}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="基础资料审核" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>一级任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,10 +130,6 @@
   </si>
   <si>
     <t>培训渠道人员输入系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核人员培训系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,12 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分别部署包含资料基本审核和居间审核流程的环境：
-资料审核-基本资料审核
-资料审核-居间协议审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>审核资料的模拟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +234,33 @@
   <si>
     <t>增加gsurvey查询风控接口的参数
 增加gsurvey façade接口参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础资料审核人员培训系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居间审核人员培训系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分别部署包含资料基本审核和居间审核流程的环境：
+资料审核-基本资料审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分别部署包含资料基本审核和居间审核流程的环境：
+资料审核-居间协议审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料审核节点迁至数据的模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.程序产生审核资料前置数据
+2.生产环境的实际数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC308AA4-12BF-4F4B-94A5-F1455F3377BC}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -769,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
@@ -795,7 +813,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -807,7 +825,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -818,10 +836,10 @@
         <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -830,10 +848,10 @@
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -842,24 +860,24 @@
       <c r="A7" s="10"/>
       <c r="B7" s="9"/>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="8" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -868,10 +886,10 @@
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -880,139 +898,223 @@
       <c r="A10" s="10"/>
       <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="8" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="9"/>
       <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
+    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>14</v>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A18" s="9"/>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
+    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A16:A17"/>
+  <mergeCells count="9">
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A3:A16"/>
     <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF847DB-AF49-418D-B465-4426AB14519D}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.25" customWidth="1"/>
+    <col min="3" max="3" width="41.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>